--- a/results/RMR results/lmer_multi_comp_basin_season.xlsx
+++ b/results/RMR results/lmer_multi_comp_basin_season.xlsx
@@ -41,30 +41,18 @@
     <t xml:space="preserve">fish_basin*season</t>
   </si>
   <si>
-    <t xml:space="preserve">East Fall - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Fall - North Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">East Fall - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Fall - West Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">East Fall - West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Spring - East Fall</t>
   </si>
   <si>
     <t xml:space="preserve">East Spring - East Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">East Spring - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Spring - North Fall</t>
   </si>
   <si>
@@ -74,9 +62,6 @@
     <t xml:space="preserve">East Spring - North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">East Spring - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Spring - West Fall</t>
   </si>
   <si>
@@ -86,114 +71,117 @@
     <t xml:space="preserve">East Spring - West Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">East Spring - West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Summer - East Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">East Summer - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Summer - North Fall</t>
   </si>
   <si>
     <t xml:space="preserve">East Summer - North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">East Summer - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Summer - West Fall</t>
   </si>
   <si>
     <t xml:space="preserve">East Summer - West Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">East Summer - West Winter</t>
+    <t xml:space="preserve">East Winter - East Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - East Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - East Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - North Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - North Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - North Summer</t>
   </si>
   <si>
     <t xml:space="preserve">East Winter - North Winter</t>
   </si>
   <si>
+    <t xml:space="preserve">East Winter - West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - West Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter - West Summer</t>
+  </si>
+  <si>
     <t xml:space="preserve">East Winter - West Winter</t>
   </si>
   <si>
-    <t xml:space="preserve">North Fall - East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Fall - North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Fall - West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Spring - East Fall</t>
   </si>
   <si>
     <t xml:space="preserve">North Spring - East Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Spring - North Fall</t>
   </si>
   <si>
     <t xml:space="preserve">North Spring - North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Spring - West Fall</t>
   </si>
   <si>
     <t xml:space="preserve">North Spring - West Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring - West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Summer - East Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">North Summer - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Summer - North Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">North Summer - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Summer - West Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">North Summer - West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Fall - East Winter</t>
+    <t xml:space="preserve">North Winter - East Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - East Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - East Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - North Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - North Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - North Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - West Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter - West Summer</t>
   </si>
   <si>
     <t xml:space="preserve">West Fall - North Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">West Fall - North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Fall - West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Spring - East Fall</t>
   </si>
   <si>
     <t xml:space="preserve">West Spring - East Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">West Spring - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Spring - North Fall</t>
   </si>
   <si>
@@ -203,40 +191,52 @@
     <t xml:space="preserve">West Spring - North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">West Spring - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Spring - West Fall</t>
   </si>
   <si>
     <t xml:space="preserve">West Spring - West Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">West Spring - West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Summer - East Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">West Summer - East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Summer - North Fall</t>
   </si>
   <si>
     <t xml:space="preserve">West Summer - North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">West Summer - North Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Summer - West Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">West Summer - West Winter</t>
+    <t xml:space="preserve">West Winter - East Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - East Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - East Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - North Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - North Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - North Summer</t>
   </si>
   <si>
     <t xml:space="preserve">West Winter - North Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - West Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter - West Summer</t>
   </si>
 </sst>
 </file>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8745822938783</v>
+        <v>4.73514010152673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.970139372952939</v>
+        <v>9.70908955318368</v>
       </c>
       <c r="F2" t="n">
         <v>3157</v>
       </c>
       <c r="G2" t="n">
-        <v>18.4247570938917</v>
+        <v>0.487701763959324</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.999998144928142</v>
       </c>
     </row>
     <row r="3">
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.73600960764215</v>
+        <v>-5.5444454025375</v>
       </c>
       <c r="E3" t="n">
-        <v>9.70912448351878</v>
+        <v>9.08727180497897</v>
       </c>
       <c r="F3" t="n">
         <v>3157</v>
       </c>
       <c r="G3" t="n">
-        <v>0.487789564927457</v>
+        <v>-0.610133109422309</v>
       </c>
       <c r="H3" t="n">
-        <v>0.999998141419394</v>
+        <v>0.999981079972281</v>
       </c>
     </row>
     <row r="4">
@@ -657,19 +657,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9077103899826</v>
+        <v>-12.7193707110061</v>
       </c>
       <c r="E4" t="n">
-        <v>9.79108522952742</v>
+        <v>0.958838523872745</v>
       </c>
       <c r="F4" t="n">
         <v>3157</v>
       </c>
       <c r="G4" t="n">
-        <v>1.62471370814023</v>
+        <v>-13.2653939055688</v>
       </c>
       <c r="H4" t="n">
-        <v>0.900221484724742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.54435026416351</v>
+        <v>-13.8408691026889</v>
       </c>
       <c r="E5" t="n">
-        <v>9.08730294742962</v>
+        <v>0.967187008513982</v>
       </c>
       <c r="F5" t="n">
         <v>3157</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.610120549104369</v>
+        <v>-14.3104373620098</v>
       </c>
       <c r="H5" t="n">
-        <v>0.999981083952574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>24.799530427399</v>
+        <v>-7.98423060947941</v>
       </c>
       <c r="E6" t="n">
-        <v>9.20178263090654</v>
+        <v>9.7043607151421</v>
       </c>
       <c r="F6" t="n">
         <v>3157</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6950789235233</v>
+        <v>-0.822746685108407</v>
       </c>
       <c r="H6" t="n">
-        <v>0.228965782980644</v>
+        <v>0.999630192664193</v>
       </c>
     </row>
     <row r="7">
@@ -735,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-12.7193465503516</v>
+        <v>-6.96785313737891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.958838122696969</v>
+        <v>9.7440730074095</v>
       </c>
       <c r="F7" t="n">
         <v>3157</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.2653742579355</v>
+        <v>-0.715086302419992</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.999906197776597</v>
       </c>
     </row>
     <row r="8">
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.8409062158906</v>
+        <v>-19.5258949921872</v>
       </c>
       <c r="E8" t="n">
-        <v>0.96718660285748</v>
+        <v>9.68463771404193</v>
       </c>
       <c r="F8" t="n">
         <v>3157</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.3104817364081</v>
+        <v>-2.0161719590064</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.682430848991085</v>
       </c>
     </row>
     <row r="9">
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.15523574352672</v>
+        <v>-18.2638161135436</v>
       </c>
       <c r="E9" t="n">
-        <v>0.939240764317583</v>
+        <v>9.08219730846464</v>
       </c>
       <c r="F9" t="n">
         <v>3157</v>
       </c>
       <c r="G9" t="n">
-        <v>5.48872657509954</v>
+        <v>-2.01094685495565</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00000284862180910395</v>
+        <v>0.686054313903753</v>
       </c>
     </row>
     <row r="10">
@@ -813,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.98333694270944</v>
+        <v>0.66500807133076</v>
       </c>
       <c r="E10" t="n">
-        <v>9.7043958011238</v>
+        <v>9.17868842728819</v>
       </c>
       <c r="F10" t="n">
         <v>3157</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.822651621627483</v>
+        <v>0.0724513177017421</v>
       </c>
       <c r="H10" t="n">
-        <v>0.999630603099089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.9669700925186</v>
+        <v>-12.6019688598669</v>
       </c>
       <c r="E11" t="n">
-        <v>9.74410589714862</v>
+        <v>9.04113089682697</v>
       </c>
       <c r="F11" t="n">
         <v>3157</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.714993265267912</v>
+        <v>-1.39384873459686</v>
       </c>
       <c r="H11" t="n">
-        <v>0.999906319000209</v>
+        <v>0.964898744210969</v>
       </c>
     </row>
     <row r="12">
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.5249674630498</v>
+        <v>1.12149839168281</v>
       </c>
       <c r="E12" t="n">
-        <v>9.68467261100769</v>
+        <v>0.994741398395681</v>
       </c>
       <c r="F12" t="n">
         <v>3157</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.01606892120003</v>
+        <v>1.12742708154257</v>
       </c>
       <c r="H12" t="n">
-        <v>0.682502423171953</v>
+        <v>0.993494483418537</v>
       </c>
     </row>
     <row r="13">
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.18836383963098</v>
+        <v>5.85663849320954</v>
       </c>
       <c r="E13" t="n">
-        <v>9.78638646425806</v>
+        <v>9.69841038102244</v>
       </c>
       <c r="F13" t="n">
         <v>3157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.325795823747156</v>
+        <v>0.603876126408265</v>
       </c>
       <c r="H13" t="n">
-        <v>0.999999974778741</v>
+        <v>0.99998297316374</v>
       </c>
     </row>
     <row r="14">
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.2636968145151</v>
+        <v>-5.68502588949826</v>
       </c>
       <c r="E14" t="n">
-        <v>9.08222849762007</v>
+        <v>9.67865342467764</v>
       </c>
       <c r="F14" t="n">
         <v>3157</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.01092681375512</v>
+        <v>-0.587377772511532</v>
       </c>
       <c r="H14" t="n">
-        <v>0.686068187738238</v>
+        <v>0.999987184054399</v>
       </c>
     </row>
     <row r="15">
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.665164136720086</v>
+        <v>-4.42294701085468</v>
       </c>
       <c r="E15" t="n">
-        <v>9.17871912324021</v>
+        <v>9.0756949099743</v>
       </c>
       <c r="F15" t="n">
         <v>3157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0724680783657398</v>
+        <v>-0.487339763481231</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.999998159332012</v>
       </c>
     </row>
     <row r="16">
@@ -969,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-12.6018062460484</v>
+        <v>1.23890024282206</v>
       </c>
       <c r="E16" t="n">
-        <v>9.04116205055734</v>
+        <v>9.03450703912146</v>
       </c>
       <c r="F16" t="n">
         <v>3157</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.3938259457778</v>
+        <v>0.137129811007655</v>
       </c>
       <c r="H16" t="n">
-        <v>0.964902955163375</v>
+        <v>0.999999999998002</v>
       </c>
     </row>
     <row r="17">
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12.0801838770474</v>
+        <v>-17.8745995915453</v>
       </c>
       <c r="E17" t="n">
-        <v>9.19676516680605</v>
+        <v>0.970139778635657</v>
       </c>
       <c r="F17" t="n">
         <v>3157</v>
       </c>
       <c r="G17" t="n">
-        <v>1.31352531655897</v>
+        <v>-18.4247672193</v>
       </c>
       <c r="H17" t="n">
-        <v>0.97753775259393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1021,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.12155966553898</v>
+        <v>-5.15522888053912</v>
       </c>
       <c r="E18" t="n">
-        <v>0.994740979686285</v>
+        <v>0.939241157249013</v>
       </c>
       <c r="F18" t="n">
         <v>3157</v>
       </c>
       <c r="G18" t="n">
-        <v>1.12748915390285</v>
+        <v>-5.48871697194202</v>
       </c>
       <c r="H18" t="n">
-        <v>0.993491441312993</v>
+        <v>0.00000284877470302369</v>
       </c>
     </row>
     <row r="19">
@@ -1047,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.9961419594173</v>
+        <v>-18.9960979832281</v>
       </c>
       <c r="E19" t="n">
-        <v>0.984585560810607</v>
+        <v>0.984585974459425</v>
       </c>
       <c r="F19" t="n">
         <v>3157</v>
       </c>
       <c r="G19" t="n">
-        <v>19.293541075067</v>
+        <v>-19.2934883047239</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.85756927318113</v>
+        <v>-13.1394594900185</v>
       </c>
       <c r="E20" t="n">
-        <v>9.69844638019767</v>
+        <v>9.70726366805329</v>
       </c>
       <c r="F20" t="n">
         <v>3157</v>
       </c>
       <c r="G20" t="n">
-        <v>0.603969856980509</v>
+        <v>-1.35356985648393</v>
       </c>
       <c r="H20" t="n">
-        <v>0.999982946093566</v>
+        <v>0.971770282390022</v>
       </c>
     </row>
     <row r="21">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.68406124715922</v>
+        <v>-12.123082017918</v>
       </c>
       <c r="E21" t="n">
-        <v>9.67868923674303</v>
+        <v>9.74699795076949</v>
       </c>
       <c r="F21" t="n">
         <v>3157</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.587275932528231</v>
+        <v>-1.24377598919685</v>
       </c>
       <c r="H21" t="n">
-        <v>0.999987206869878</v>
+        <v>0.985366293858215</v>
       </c>
     </row>
     <row r="22">
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>17.0292700555215</v>
+        <v>-24.6811238727263</v>
       </c>
       <c r="E22" t="n">
-        <v>9.7804231710478</v>
+        <v>9.68755117844326</v>
       </c>
       <c r="F22" t="n">
         <v>3157</v>
       </c>
       <c r="G22" t="n">
-        <v>1.74115881876481</v>
+        <v>-2.54771545647643</v>
       </c>
       <c r="H22" t="n">
-        <v>0.848999639830581</v>
+        <v>0.310577426485677</v>
       </c>
     </row>
     <row r="23">
@@ -1151,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.42279059862453</v>
+        <v>-1.96775395662565</v>
       </c>
       <c r="E23" t="n">
-        <v>9.07572629099699</v>
+        <v>9.78924461576805</v>
       </c>
       <c r="F23" t="n">
         <v>3157</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.487320844284593</v>
+        <v>-0.201011828170694</v>
       </c>
       <c r="H23" t="n">
-        <v>0.999998160082038</v>
+        <v>0.999999999866597</v>
       </c>
     </row>
     <row r="24">
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.23909996984212</v>
+        <v>-23.4190449940827</v>
       </c>
       <c r="E24" t="n">
-        <v>9.03453838694505</v>
+        <v>9.08532944253276</v>
       </c>
       <c r="F24" t="n">
         <v>3157</v>
       </c>
       <c r="G24" t="n">
-        <v>0.137151442251065</v>
+        <v>-2.57767702780782</v>
       </c>
       <c r="H24" t="n">
-        <v>0.999999999997999</v>
+        <v>0.292779025434662</v>
       </c>
     </row>
     <row r="25">
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>25.921090092938</v>
+        <v>-4.49022080920836</v>
       </c>
       <c r="E25" t="n">
-        <v>9.19030331510201</v>
+        <v>9.18179587556852</v>
       </c>
       <c r="F25" t="n">
         <v>3157</v>
       </c>
       <c r="G25" t="n">
-        <v>2.82048254602686</v>
+        <v>-0.48903513757654</v>
       </c>
       <c r="H25" t="n">
-        <v>0.171711121157168</v>
+        <v>0.999998090998738</v>
       </c>
     </row>
     <row r="26">
@@ -1229,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.96687190389574</v>
+        <v>-17.757197740406</v>
       </c>
       <c r="E26" t="n">
-        <v>9.78927834184991</v>
+        <v>9.04429662106161</v>
       </c>
       <c r="F26" t="n">
         <v>3157</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.200921031684963</v>
+        <v>-1.96335862084117</v>
       </c>
       <c r="H26" t="n">
-        <v>0.999999999867254</v>
+        <v>0.718429756520325</v>
       </c>
     </row>
     <row r="27">
@@ -1255,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6.92494813352068</v>
+        <v>6.92482794038639</v>
       </c>
       <c r="E27" t="n">
-        <v>9.19986683251987</v>
+        <v>9.19983626300987</v>
       </c>
       <c r="F27" t="n">
         <v>3157</v>
       </c>
       <c r="G27" t="n">
-        <v>0.752722649097728</v>
+        <v>0.752712085564969</v>
       </c>
       <c r="H27" t="n">
-        <v>0.999844260330422</v>
+        <v>0.999844281809665</v>
       </c>
     </row>
     <row r="28">
@@ -1281,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.1385726862362</v>
+        <v>-5.75151757362722</v>
       </c>
       <c r="E28" t="n">
-        <v>9.707298553953</v>
+        <v>9.74880694719963</v>
       </c>
       <c r="F28" t="n">
         <v>3157</v>
       </c>
       <c r="G28" t="n">
-        <v>1.35347363771828</v>
+        <v>-0.589971429814738</v>
       </c>
       <c r="H28" t="n">
-        <v>0.971785370032515</v>
+        <v>0.99998659065913</v>
       </c>
     </row>
     <row r="29">
@@ -1307,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11.1717007823404</v>
+        <v>-6.87301596531003</v>
       </c>
       <c r="E29" t="n">
-        <v>1.87236461535392</v>
+        <v>9.73798649867825</v>
       </c>
       <c r="F29" t="n">
         <v>3157</v>
       </c>
       <c r="G29" t="n">
-        <v>5.96662674071561</v>
+        <v>-0.705794361723845</v>
       </c>
       <c r="H29" t="n">
-        <v>0.000000174912780703806</v>
+        <v>0.999917646155434</v>
       </c>
     </row>
     <row r="30">
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>20.0635208197568</v>
+        <v>-1.0163774721005</v>
       </c>
       <c r="E30" t="n">
-        <v>10.5141799818747</v>
+        <v>1.79177978526806</v>
       </c>
       <c r="F30" t="n">
         <v>3157</v>
       </c>
       <c r="G30" t="n">
-        <v>1.90823448470011</v>
+        <v>-0.56724463600779</v>
       </c>
       <c r="H30" t="n">
-        <v>0.754289889278536</v>
+        <v>0.99999105183554</v>
       </c>
     </row>
     <row r="31">
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.75237645783298</v>
+        <v>-12.5580418548083</v>
       </c>
       <c r="E31" t="n">
-        <v>9.748839682511</v>
+        <v>1.74437922175264</v>
       </c>
       <c r="F31" t="n">
         <v>3157</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.590057549941302</v>
+        <v>-7.19914666387209</v>
       </c>
       <c r="H31" t="n">
-        <v>0.999986570543764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.87393612337196</v>
+        <v>-11.2959629761647</v>
       </c>
       <c r="E32" t="n">
-        <v>9.73802029871818</v>
+        <v>10.4510411946597</v>
       </c>
       <c r="F32" t="n">
         <v>3157</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.705886403243252</v>
+        <v>-1.08084570386506</v>
       </c>
       <c r="H32" t="n">
-        <v>0.999917539073247</v>
+        <v>0.995471661973648</v>
       </c>
     </row>
     <row r="33">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>12.1222058360453</v>
+        <v>-5.63411572248798</v>
       </c>
       <c r="E33" t="n">
-        <v>9.74703064147507</v>
+        <v>10.4153357128104</v>
       </c>
       <c r="F33" t="n">
         <v>3157</v>
       </c>
       <c r="G33" t="n">
-        <v>1.24368192549468</v>
+        <v>-0.540944226652075</v>
       </c>
       <c r="H33" t="n">
-        <v>0.985375149769577</v>
+        <v>0.999994526667027</v>
       </c>
     </row>
     <row r="34">
@@ -1437,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.01636685019083</v>
+        <v>6.80652428118107</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7917790429672</v>
+        <v>9.68937949289619</v>
       </c>
       <c r="F34" t="n">
         <v>3157</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.567238942870836</v>
+        <v>0.702472669810415</v>
       </c>
       <c r="H34" t="n">
-        <v>0.999991052762649</v>
+        <v>0.999921429718469</v>
       </c>
     </row>
     <row r="35">
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-12.5579973705312</v>
+        <v>11.5416643827078</v>
       </c>
       <c r="E35" t="n">
-        <v>1.7443784952169</v>
+        <v>1.31131556667712</v>
       </c>
       <c r="F35" t="n">
         <v>3157</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.19912416082019</v>
+        <v>8.80159183342456</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1489,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>10.1553339321496</v>
+        <v>1.26207887864358</v>
       </c>
       <c r="E36" t="n">
-        <v>2.01915011447436</v>
+        <v>10.3956622042315</v>
       </c>
       <c r="F36" t="n">
         <v>3157</v>
       </c>
       <c r="G36" t="n">
-        <v>5.02950912829642</v>
+        <v>0.121404375579832</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000033374628633176</v>
+        <v>0.999999999999624</v>
       </c>
     </row>
     <row r="37">
@@ -1515,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-11.2967267219965</v>
+        <v>-15.9068456349196</v>
       </c>
       <c r="E37" t="n">
-        <v>10.4510764984136</v>
+        <v>9.79105145914457</v>
       </c>
       <c r="F37" t="n">
         <v>3157</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.08091513096391</v>
+        <v>-1.62463099099158</v>
       </c>
       <c r="H37" t="n">
-        <v>0.995469136973078</v>
+        <v>0.900253280954528</v>
       </c>
     </row>
     <row r="38">
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-5.63483615352984</v>
+        <v>-3.18747492391346</v>
       </c>
       <c r="E38" t="n">
-        <v>10.415371982961</v>
+        <v>9.78635254000651</v>
       </c>
       <c r="F38" t="n">
         <v>3157</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.541011512862731</v>
+        <v>-0.325706120935568</v>
       </c>
       <c r="H38" t="n">
-        <v>0.999994519593569</v>
+        <v>0.999999974853457</v>
       </c>
     </row>
     <row r="39">
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>19.047153969566</v>
+        <v>-17.0283440266024</v>
       </c>
       <c r="E39" t="n">
-        <v>10.5507474323284</v>
+        <v>9.78038834120294</v>
       </c>
       <c r="F39" t="n">
         <v>3157</v>
       </c>
       <c r="G39" t="n">
-        <v>1.80528953912818</v>
+        <v>-1.74107033714246</v>
       </c>
       <c r="H39" t="n">
-        <v>0.815410920495673</v>
+        <v>0.849043412527023</v>
       </c>
     </row>
     <row r="40">
@@ -1593,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.8056209126982</v>
+        <v>-11.1717055333929</v>
       </c>
       <c r="E40" t="n">
-        <v>9.6894142339109</v>
+        <v>1.87236539558874</v>
       </c>
       <c r="F40" t="n">
         <v>3157</v>
       </c>
       <c r="G40" t="n">
-        <v>0.702376918604632</v>
+        <v>-5.96662679181811</v>
       </c>
       <c r="H40" t="n">
-        <v>0.999921536476993</v>
+        <v>0.000000174912725858789</v>
       </c>
     </row>
     <row r="41">
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>24.6802032065765</v>
+        <v>-10.1553280612924</v>
       </c>
       <c r="E41" t="n">
-        <v>9.68758587493294</v>
+        <v>2.01915095472738</v>
       </c>
       <c r="F41" t="n">
         <v>3157</v>
       </c>
       <c r="G41" t="n">
-        <v>2.54761129606475</v>
+        <v>-5.0295041277206</v>
       </c>
       <c r="H41" t="n">
-        <v>0.310640322843078</v>
+        <v>0.0000333754844398237</v>
       </c>
     </row>
     <row r="42">
@@ -1645,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>11.5416305203403</v>
+        <v>-22.7133699161007</v>
       </c>
       <c r="E42" t="n">
-        <v>1.31131501983727</v>
+        <v>1.84767907464409</v>
       </c>
       <c r="F42" t="n">
         <v>3157</v>
       </c>
       <c r="G42" t="n">
-        <v>8.80156968061925</v>
+        <v>-12.2929193861634</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1671,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22.7133313026808</v>
+        <v>-21.4512910374571</v>
       </c>
       <c r="E43" t="n">
-        <v>1.84767830577655</v>
+        <v>10.4904811661359</v>
       </c>
       <c r="F43" t="n">
         <v>3157</v>
       </c>
       <c r="G43" t="n">
-        <v>12.2929036032247</v>
+        <v>-2.04483385439969</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.662344605749412</v>
       </c>
     </row>
     <row r="44">
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.26127064853469</v>
+        <v>-2.5224668525827</v>
       </c>
       <c r="E44" t="n">
-        <v>10.3956990904761</v>
+        <v>10.5741592787432</v>
       </c>
       <c r="F44" t="n">
         <v>3157</v>
       </c>
       <c r="G44" t="n">
-        <v>0.121326198224629</v>
+        <v>-0.238550109383497</v>
       </c>
       <c r="H44" t="n">
-        <v>0.999999999999626</v>
+        <v>0.999999999137878</v>
       </c>
     </row>
     <row r="45">
@@ -1723,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>31.6051513400972</v>
+        <v>-15.7894437837804</v>
       </c>
       <c r="E45" t="n">
-        <v>10.4959656264052</v>
+        <v>10.4550183922808</v>
       </c>
       <c r="F45" t="n">
         <v>3157</v>
       </c>
       <c r="G45" t="n">
-        <v>3.01117138384929</v>
+        <v>-1.51022630389996</v>
       </c>
       <c r="H45" t="n">
-        <v>0.105665721191605</v>
+        <v>0.93810141108339</v>
       </c>
     </row>
     <row r="46">
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.4189325580418</v>
+        <v>10.2795855040642</v>
       </c>
       <c r="E46" t="n">
-        <v>9.08536058346519</v>
+        <v>10.4140408084054</v>
       </c>
       <c r="F46" t="n">
         <v>3157</v>
       </c>
       <c r="G46" t="n">
-        <v>2.57765581705836</v>
+        <v>0.987089036156587</v>
       </c>
       <c r="H46" t="n">
-        <v>0.292791415831092</v>
+        <v>0.997973910423427</v>
       </c>
     </row>
     <row r="47">
@@ -1775,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>10.2803598718057</v>
+        <v>-13.3843787823369</v>
       </c>
       <c r="E47" t="n">
-        <v>10.414077826925</v>
+        <v>9.18371553649476</v>
       </c>
       <c r="F47" t="n">
         <v>3157</v>
       </c>
       <c r="G47" t="n">
-        <v>0.987159885172585</v>
+        <v>-1.45740345823532</v>
       </c>
       <c r="H47" t="n">
-        <v>0.997972595625091</v>
+        <v>0.951625297123289</v>
       </c>
     </row>
     <row r="48">
@@ -1801,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>21.4520606541461</v>
+        <v>-14.5058771740197</v>
       </c>
       <c r="E48" t="n">
-        <v>10.4905172368425</v>
+        <v>9.17221538534404</v>
       </c>
       <c r="F48" t="n">
         <v>3157</v>
       </c>
       <c r="G48" t="n">
-        <v>2.04490018650432</v>
+        <v>-1.58150202155066</v>
       </c>
       <c r="H48" t="n">
-        <v>0.662297734826128</v>
+        <v>0.915948283470481</v>
       </c>
     </row>
     <row r="49">
@@ -1827,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>30.3438806915625</v>
+        <v>-8.64923868081017</v>
       </c>
       <c r="E49" t="n">
-        <v>1.94497801252613</v>
+        <v>10.4983590272866</v>
       </c>
       <c r="F49" t="n">
         <v>3157</v>
       </c>
       <c r="G49" t="n">
-        <v>15.6011433014361</v>
+        <v>-0.823865773529911</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.99962533120852</v>
       </c>
     </row>
     <row r="50">
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-13.3845106870717</v>
+        <v>-7.63286120870967</v>
       </c>
       <c r="E50" t="n">
-        <v>9.18374618657292</v>
+        <v>10.5349863391915</v>
       </c>
       <c r="F50" t="n">
         <v>3157</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.45741295710464</v>
+        <v>-0.724525021956076</v>
       </c>
       <c r="H50" t="n">
-        <v>0.951623075520132</v>
+        <v>0.999893159668856</v>
       </c>
     </row>
     <row r="51">
@@ -1879,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-14.5060703526107</v>
+        <v>-20.190903063518</v>
       </c>
       <c r="E51" t="n">
-        <v>9.17224627096373</v>
+        <v>10.4801178301737</v>
       </c>
       <c r="F51" t="n">
         <v>3157</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.58151775738207</v>
+        <v>-1.92659122642548</v>
       </c>
       <c r="H51" t="n">
-        <v>0.915942876816366</v>
+        <v>0.742564710058987</v>
       </c>
     </row>
     <row r="52">
@@ -1905,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4.49007160680663</v>
+        <v>-18.9288241848744</v>
       </c>
       <c r="E52" t="n">
-        <v>9.18182652400071</v>
+        <v>1.85958293866404</v>
       </c>
       <c r="F52" t="n">
         <v>3157</v>
       </c>
       <c r="G52" t="n">
-        <v>0.489017255452373</v>
+        <v>-10.1790696135732</v>
       </c>
       <c r="H52" t="n">
-        <v>0.999998091731187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1931,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.64850107942952</v>
+        <v>-13.2669769311977</v>
       </c>
       <c r="E53" t="n">
-        <v>10.4983960311771</v>
+        <v>1.85639507726336</v>
       </c>
       <c r="F53" t="n">
         <v>3157</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.823792611151843</v>
+        <v>-7.1466344064839</v>
       </c>
       <c r="H53" t="n">
-        <v>0.999625650719072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1957,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.63213422923869</v>
+        <v>-0.117401851139242</v>
       </c>
       <c r="E54" t="n">
-        <v>10.5350216436204</v>
+        <v>9.04624238363353</v>
       </c>
       <c r="F54" t="n">
         <v>3157</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.724453587986737</v>
+        <v>-0.0129779687698447</v>
       </c>
       <c r="H54" t="n">
-        <v>0.999893264028272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1983,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-20.1901315997699</v>
+        <v>4.61773825038748</v>
       </c>
       <c r="E55" t="n">
-        <v>10.4801547022887</v>
+        <v>10.3783890964127</v>
       </c>
       <c r="F55" t="n">
         <v>3157</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.92651083627236</v>
+        <v>0.444937861501416</v>
       </c>
       <c r="H55" t="n">
-        <v>0.742616548569926</v>
+        <v>0.999999294847626</v>
       </c>
     </row>
     <row r="56">
@@ -2009,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>2.52319970291089</v>
+        <v>-6.92392613232031</v>
       </c>
       <c r="E56" t="n">
-        <v>10.5741953447953</v>
+        <v>10.3599227167666</v>
       </c>
       <c r="F56" t="n">
         <v>3157</v>
       </c>
       <c r="G56" t="n">
-        <v>0.238618601287031</v>
+        <v>-0.668337623900861</v>
       </c>
       <c r="H56" t="n">
-        <v>0.999999999135181</v>
+        <v>0.999952308726854</v>
       </c>
     </row>
     <row r="57">
@@ -2035,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-18.9288609512352</v>
+        <v>-5.66184725367674</v>
       </c>
       <c r="E57" t="n">
-        <v>1.85958216686837</v>
+        <v>1.30834677535969</v>
       </c>
       <c r="F57" t="n">
         <v>3157</v>
       </c>
       <c r="G57" t="n">
-        <v>-10.1790936095673</v>
+        <v>-4.3274821020751</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.000944535817102743</v>
       </c>
     </row>
     <row r="58">
@@ -2061,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-13.2669703827685</v>
+        <v>-24.7994275319316</v>
       </c>
       <c r="E58" t="n">
-        <v>1.85639431311263</v>
+        <v>9.20175205971669</v>
       </c>
       <c r="F58" t="n">
         <v>3157</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.14663382076608</v>
+        <v>-2.69507669528483</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.228966901340645</v>
       </c>
     </row>
     <row r="59">
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>11.4150197403273</v>
+        <v>-12.0800568209255</v>
       </c>
       <c r="E59" t="n">
-        <v>2.06160873836673</v>
+        <v>9.1967345498796</v>
       </c>
       <c r="F59" t="n">
         <v>3157</v>
       </c>
       <c r="G59" t="n">
-        <v>5.5369476893907</v>
+        <v>-1.31351587407551</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00000217312047801066</v>
+        <v>0.977538995733244</v>
       </c>
     </row>
     <row r="60">
@@ -2113,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.117540304303144</v>
+        <v>-25.9209259236145</v>
       </c>
       <c r="E60" t="n">
-        <v>9.04627349007685</v>
+        <v>9.19027250880143</v>
       </c>
       <c r="F60" t="n">
         <v>3157</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0129932291381725</v>
+        <v>-2.82047413706071</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.171714581059956</v>
       </c>
     </row>
     <row r="61">
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>17.7570419895752</v>
+        <v>-20.0642874304049</v>
       </c>
       <c r="E61" t="n">
-        <v>9.0443277260509</v>
+        <v>10.5141430315297</v>
       </c>
       <c r="F61" t="n">
         <v>3157</v>
       </c>
       <c r="G61" t="n">
-        <v>1.96333464768515</v>
+        <v>-1.90831410322614</v>
       </c>
       <c r="H61" t="n">
-        <v>0.718445758363253</v>
+        <v>0.754239528094991</v>
       </c>
     </row>
     <row r="62">
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>4.61846930333901</v>
+        <v>-19.0479099583044</v>
       </c>
       <c r="E62" t="n">
-        <v>10.3784270891735</v>
+        <v>10.5507121781958</v>
       </c>
       <c r="F62" t="n">
         <v>3157</v>
       </c>
       <c r="G62" t="n">
-        <v>0.445006672365301</v>
+        <v>-1.80536722418313</v>
       </c>
       <c r="H62" t="n">
-        <v>0.999999293692932</v>
+        <v>0.8153680302627</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.92316121700134</v>
+        <v>-31.6059518131127</v>
       </c>
       <c r="E63" t="n">
-        <v>10.3599605788034</v>
+        <v>10.495928807785</v>
       </c>
       <c r="F63" t="n">
         <v>3157</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.668261347554372</v>
+        <v>-3.01125821181924</v>
       </c>
       <c r="H63" t="n">
-        <v>0.999952363503064</v>
+        <v>0.105641010592493</v>
       </c>
     </row>
     <row r="64">
@@ -2217,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>15.7901700856794</v>
+        <v>-8.89258189701205</v>
       </c>
       <c r="E64" t="n">
-        <v>10.4550554267618</v>
+        <v>10.5898289642568</v>
       </c>
       <c r="F64" t="n">
         <v>3157</v>
       </c>
       <c r="G64" t="n">
-        <v>1.51029042325891</v>
+        <v>-0.839728566629985</v>
       </c>
       <c r="H64" t="n">
-        <v>0.938083538148435</v>
+        <v>0.999550219414321</v>
       </c>
     </row>
     <row r="65">
@@ -2243,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.66189056846665</v>
+        <v>-30.3438729344691</v>
       </c>
       <c r="E65" t="n">
-        <v>1.3083462350346</v>
+        <v>1.94497882011735</v>
       </c>
       <c r="F65" t="n">
         <v>3157</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.32751699577207</v>
+        <v>-15.6011328352862</v>
       </c>
       <c r="H65" t="n">
-        <v>0.000944391312505011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2269,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>24.6819901230958</v>
+        <v>-11.4150487495947</v>
       </c>
       <c r="E66" t="n">
-        <v>1.94332531720137</v>
+        <v>2.06160960069476</v>
       </c>
       <c r="F66" t="n">
         <v>3157</v>
       </c>
       <c r="G66" t="n">
-        <v>12.7009049409396</v>
+        <v>-5.53695944457568</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.00000217297647409076</v>
       </c>
     </row>
     <row r="67">
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.89182003741643</v>
+        <v>-24.6820256807924</v>
       </c>
       <c r="E67" t="n">
-        <v>10.5898649790639</v>
+        <v>1.94332611709243</v>
       </c>
       <c r="F67" t="n">
         <v>3157</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.839653768484818</v>
+        <v>-12.7009180104682</v>
       </c>
       <c r="H67" t="n">
-        <v>0.999550602079097</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
